--- a/thesisppt/litrev2.xlsx
+++ b/thesisppt/litrev2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari\thesis\thesisppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7430"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="ProjectEnd">'Project Timeline'!$L$21</definedName>
     <definedName name="ProjectStart">'Project Timeline'!$L$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TIMELINE</t>
   </si>
@@ -76,11 +76,14 @@
   <si>
     <t>Salkild's Patch for Brownbridge</t>
   </si>
+  <si>
+    <t>Distributed SWPR GC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -323,7 +326,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -396,6 +399,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -422,6 +428,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -448,6 +457,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -474,6 +486,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -500,6 +515,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -526,6 +544,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -552,6 +573,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -578,6 +602,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -604,6 +631,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -630,6 +660,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -656,6 +689,9 @@
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-F907-41F2-8BBE-DA85E6E82C9A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -681,6 +717,9 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-F907-41F2-8BBE-DA85E6E82C9A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -742,7 +781,7 @@
             <c:strRef>
               <c:f>'Project Timeline'!$C$20:$C$32</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Liskov and Ladin Distributed GC</c:v>
                 </c:pt>
@@ -772,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Strong Weak Phantom RC GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Distributed SWPR GC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -812,9 +854,17 @@
                 <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>-25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F907-41F2-8BBE-DA85E6E82C9A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -907,6 +957,9 @@
                 <c:pt idx="9">
                   <c:v>41640</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>42370</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -950,6 +1003,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F907-41F2-8BBE-DA85E6E82C9A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1540,25 +1598,25 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
       <c r="B1" s="15" t="s">
         <v>6</v>
@@ -1576,7 +1634,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1594,59 +1652,59 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1715,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1734,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>31413</v>
       </c>
@@ -1695,7 +1753,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>31778</v>
       </c>
@@ -1715,7 +1773,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>32143</v>
       </c>
@@ -1734,7 +1792,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>32509</v>
       </c>
@@ -1753,7 +1811,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>32874</v>
       </c>
@@ -1772,7 +1830,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>32874</v>
       </c>
@@ -1791,7 +1849,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>33604</v>
       </c>
@@ -1810,7 +1868,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>36892</v>
       </c>
@@ -1825,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>38353</v>
       </c>
@@ -1840,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>41640</v>
       </c>
@@ -1856,13 +1914,19 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
+    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>42370</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-25</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
